--- a/images/pinout_generation.xlsx
+++ b/images/pinout_generation.xlsx
@@ -8,16 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdram\Documents\GitHub\gdramos.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441E30F-AC1C-436B-B64B-7C0ECA6B0C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210D088F-4EF3-4CB8-A5C4-1B63C94F4390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="74ls00" sheetId="1" r:id="rId1"/>
     <sheet name="74ls04" sheetId="3" r:id="rId2"/>
     <sheet name="74ls08" sheetId="4" r:id="rId3"/>
     <sheet name="74ls32" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="74ls47" sheetId="6" r:id="rId5"/>
+    <sheet name="74ls86" sheetId="7" r:id="rId6"/>
+    <sheet name="74ls138" sheetId="8" r:id="rId7"/>
+    <sheet name="74ls151" sheetId="9" r:id="rId8"/>
+    <sheet name="74ls153" sheetId="10" r:id="rId9"/>
+    <sheet name="74ls283" sheetId="11" r:id="rId10"/>
+    <sheet name="74ls73" sheetId="12" r:id="rId11"/>
+    <sheet name="at28c64b" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Vcc</t>
   </si>
@@ -111,27 +118,6 @@
     <t>74LS47 - BCD to 7-Segment Decoder</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>BI/RBO</t>
-  </si>
-  <si>
-    <t>RBI</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -154,6 +140,189 @@
   </si>
   <si>
     <t>74LS47</t>
+  </si>
+  <si>
+    <t>74LS86 - XOR Gate IC</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>74LS138</t>
+  </si>
+  <si>
+    <t>74LS138 - 3-to-8 Decoder</t>
+  </si>
+  <si>
+    <t>74LS151</t>
+  </si>
+  <si>
+    <t>74LS151 - 8-to-1 Multiplexer</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>74LS153</t>
+  </si>
+  <si>
+    <t>74LS153 - 4-to-1 Multiplexer</t>
+  </si>
+  <si>
+    <t>74LS283</t>
+  </si>
+  <si>
+    <t>74LS283 - 4-bit Adder with Carry</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>Cout</t>
+  </si>
+  <si>
+    <t>74LS73 - JK Flip Flop</t>
+  </si>
+  <si>
+    <t>1J</t>
+  </si>
+  <si>
+    <t>1Q</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>2Q</t>
+  </si>
+  <si>
+    <t>2J</t>
+  </si>
+  <si>
+    <t>2CLK</t>
+  </si>
+  <si>
+    <t>1CLK</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>AT28C64B - 64Kbit Parallel EEPROM</t>
+  </si>
+  <si>
+    <t>EN1</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1D3</t>
+  </si>
+  <si>
+    <t>1D2</t>
+  </si>
+  <si>
+    <t>1D1</t>
+  </si>
+  <si>
+    <t>1D0</t>
+  </si>
+  <si>
+    <t>1Z</t>
+  </si>
+  <si>
+    <t>2D3</t>
+  </si>
+  <si>
+    <t>2D1</t>
+  </si>
+  <si>
+    <t>2D0</t>
+  </si>
+  <si>
+    <t>2Z</t>
+  </si>
+  <si>
+    <t>2D2</t>
   </si>
 </sst>
 </file>
@@ -321,17 +490,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -341,10 +511,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,6 +620,1074 @@
         <a:xfrm>
           <a:off x="7067550" y="371475"/>
           <a:ext cx="4991100" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770BE187-CF44-4829-80B0-B7C1E095C34D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3109912"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5387</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B221546-FFB4-4D80-B5E7-03A15FE79915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1710362" y="676275"/>
+          <a:ext cx="2433013" cy="5166360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22937058-49DC-A5F6-8E2F-95C30CE94E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA4C39C-A127-46FC-A149-C40539676F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="676275"/>
+          <a:ext cx="2438400" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85357</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>218304</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="629018" cy="381771"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70470C1B-4CB0-4085-B518-D94AA40707C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1075957" y="1542279"/>
+              <a:ext cx="629018" cy="381771"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>CLR</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70470C1B-4CB0-4085-B518-D94AA40707C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1075957" y="1542279"/>
+              <a:ext cx="629018" cy="381771"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("1CLR" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="629018" cy="382221"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020AD538-283A-49B4-AA30-4508F5D07C68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1075957" y="3942129"/>
+              <a:ext cx="629018" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>CLR</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020AD538-283A-49B4-AA30-4508F5D07C68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1075957" y="3942129"/>
+              <a:ext cx="629018" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("2CLR" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="396647" cy="382221"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CF57DA-242B-4CC9-A34C-A0D0A4AFB5E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="4581525"/>
+              <a:ext cx="396647" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>Q</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CF57DA-242B-4CC9-A34C-A0D0A4AFB5E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="4581525"/>
+              <a:ext cx="396647" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("2Q" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="396647" cy="382221"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737F565-E48D-4771-87F9-C55069D69518}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="1581150"/>
+              <a:ext cx="396647" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>Q</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737F565-E48D-4771-87F9-C55069D69518}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="1581150"/>
+              <a:ext cx="396647" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("1Q" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F93019-E556-73AE-2733-8D8EEAA70700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C5493C-19F7-4DE9-A50C-603827719DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3109912"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652326</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F517B1F5-A41D-59A3-C0EB-177CDAE5B22E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057276" y="495300"/>
+          <a:ext cx="3738425" cy="5303520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AE219F-61C7-834E-8861-3081C38979F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5581650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,6 +2140,1127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>204682</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235423</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="890693" cy="364652"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25CBA42-9B21-4EBD-BAE4-CF16E935B368}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="814282" y="2759548"/>
+              <a:ext cx="890693" cy="364652"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>BI</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>RBO</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25CBA42-9B21-4EBD-BAE4-CF16E935B368}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="814282" y="2759548"/>
+              <a:ext cx="890693" cy="364652"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>("BI/RBO" ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>272844</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441531" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B727EBAD-AF19-4EF9-AA1A-7469BB560262}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1263444" y="3381375"/>
+              <a:ext cx="441531" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>RBI</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B727EBAD-AF19-4EF9-AA1A-7469BB560262}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1263444" y="3381375"/>
+              <a:ext cx="441531" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>("RBI" ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="383695" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34A55D4-FE06-4642-B7C0-4E9D50BF8B10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1321280" y="2181225"/>
+              <a:ext cx="383695" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>LT</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34A55D4-FE06-4642-B7C0-4E9D50BF8B10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1321280" y="2181225"/>
+              <a:ext cx="383695" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>("LT " ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327089</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>252672</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387286" cy="347403"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6090877D-1732-4DB0-8AE5-59B40E4C36E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="3976947"/>
+              <a:ext cx="387286" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                          </a:rPr>
+                          <m:t>A</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6090877D-1732-4DB0-8AE5-59B40E4C36E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="3976947"/>
+              <a:ext cx="387286" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>"A" _"3" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387286" cy="344774"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAA94C5-EFA2-4E81-88DF-C3C194668383}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="1581150"/>
+              <a:ext cx="387286" cy="344774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>A</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAA94C5-EFA2-4E81-88DF-C3C194668383}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="1581150"/>
+              <a:ext cx="387286" cy="344774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"A" _"2" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327089</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387286" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5048578-2D31-42AF-B8A6-3A2E1DDB7335}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="981075"/>
+              <a:ext cx="387286" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>A</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5048578-2D31-42AF-B8A6-3A2E1DDB7335}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="981075"/>
+              <a:ext cx="387286" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"A" _"1" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327089</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>252672</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387286" cy="347403"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAC73F5-D0A4-4B11-A3AC-B61FA94959DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="4577022"/>
+              <a:ext cx="387286" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>A</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAC73F5-D0A4-4B11-A3AC-B61FA94959DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1317689" y="4577022"/>
+              <a:ext cx="387286" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"A" _"0" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -918,10 +3276,2869 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B66D7C-9C62-2040-D4A2-E3B8379934D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65FF3D4-FDC3-6CEF-DD88-17CF87F8C1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="676275"/>
+          <a:ext cx="2438400" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB96C40F-53B8-77E5-4EA9-6C530FCF5AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5848350" y="371475"/>
+          <a:ext cx="4991100" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE96EFE-3A10-492F-A4CD-8782DD4C8DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3109912"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24507</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>255685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="689868" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F558588-7003-4E49-AE3E-EBA7121B9B1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1015107" y="2779810"/>
+              <a:ext cx="689868" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>EN</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>A</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F558588-7003-4E49-AE3E-EBA7121B9B1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1015107" y="2779810"/>
+              <a:ext cx="689868" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>("EN2A" ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34317</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="680058" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFDCA7D-5740-45DE-A68D-267631E4E7E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1024917" y="3381375"/>
+              <a:ext cx="680058" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>EN</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>B</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFDCA7D-5740-45DE-A68D-267631E4E7E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1024917" y="3381375"/>
+              <a:ext cx="680058" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>("EN2B" ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327988</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C42C8E-D51E-41E2-83FF-0F6EC61FB94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="676275"/>
+          <a:ext cx="2433013" cy="5166360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366203</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="344774"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C442A3E-65E2-4C13-9D51-246489960AF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="2181225"/>
+              <a:ext cx="348172" cy="344774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C442A3E-65E2-4C13-9D51-246489960AF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="2181225"/>
+              <a:ext cx="348172" cy="344774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"2" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366203</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>255685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89A8AD6-3EEE-47F0-A9CD-A50D54E87B7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="1579660"/>
+              <a:ext cx="348172" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89A8AD6-3EEE-47F0-A9CD-A50D54E87B7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="1579660"/>
+              <a:ext cx="348172" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"1" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366203</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>300297</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="347403"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9197D93D-3BF0-403E-B20C-FFE02AFA648D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="976572"/>
+              <a:ext cx="348172" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9197D93D-3BF0-403E-B20C-FFE02AFA648D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="976572"/>
+              <a:ext cx="348172" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"0" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7C5D16-0220-A9ED-A04D-1E242AA01A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA67E844-A413-4939-8531-B1709F28D861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3109912"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330744</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220035</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="383631" cy="380040"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6046AB7D-F151-4922-9F9E-41E167F7285F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1321344" y="4544385"/>
+              <a:ext cx="383631" cy="380040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>EN</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6046AB7D-F151-4922-9F9E-41E167F7285F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1321344" y="4544385"/>
+              <a:ext cx="383631" cy="380040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("EN" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5387</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604F11CE-3B08-2490-C174-4CB9C1B25268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11D1A77-3F9C-4CDC-B25A-0A3AAA34DB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1710362" y="676275"/>
+          <a:ext cx="2433013" cy="5166360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="344774"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C5D57D-1F15-4859-A183-CB5096C9EE85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="5181600"/>
+              <a:ext cx="348172" cy="344774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C5D57D-1F15-4859-A183-CB5096C9EE85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="5181600"/>
+              <a:ext cx="348172" cy="344774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"2" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A506AA53-E048-4323-94C7-060AA703829D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="4581525"/>
+              <a:ext cx="348172" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A506AA53-E048-4323-94C7-060AA703829D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="4581525"/>
+              <a:ext cx="348172" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"1" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="347403"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010BA4B4-8D6C-43E9-9AE7-74B524C1DB25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="3981450"/>
+              <a:ext cx="348172" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010BA4B4-8D6C-43E9-9AE7-74B524C1DB25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="3981450"/>
+              <a:ext cx="348172" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"0" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518489</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="195886" cy="379591"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A205FD6A-3C36-48DB-9E87-18510859EA38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1509089" y="3981450"/>
+              <a:ext cx="195886" cy="379591"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>Z</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A205FD6A-3C36-48DB-9E87-18510859EA38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1509089" y="3981450"/>
+              <a:ext cx="195886" cy="379591"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("Z" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B2463E-3D10-39D3-A496-FBFFCC598CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB19BEA8-0FA7-4873-A9D0-A2D71B1253A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3109912"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187757</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="526618" cy="380810"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F922AF-FD09-40B3-87F4-F2BA41A19310}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1178357" y="943165"/>
+              <a:ext cx="526618" cy="380810"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>EN</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F922AF-FD09-40B3-87F4-F2BA41A19310}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1178357" y="943165"/>
+              <a:ext cx="526618" cy="380810"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("1EN" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327988</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D19227-8F40-4EFE-8F0C-96766E0F9119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="676275"/>
+          <a:ext cx="2433013" cy="5166360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>217854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="526618" cy="382221"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9544C2E2-D117-4332-A217-63A2896C905E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="1541829"/>
+              <a:ext cx="526618" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="Calibri  "/>
+                          </a:rPr>
+                          <m:t>EN</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9544C2E2-D117-4332-A217-63A2896C905E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="1541829"/>
+              <a:ext cx="526618" cy="382221"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="Calibri  "/>
+                </a:rPr>
+                <a:t>¯("2EN" )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="Calibri  "/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366203</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>255685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C738DA50-84DD-4C5D-BA76-7570FD15BD42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="1579660"/>
+              <a:ext cx="348172" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C738DA50-84DD-4C5D-BA76-7570FD15BD42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1356803" y="1579660"/>
+              <a:ext cx="348172" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"1" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>252672</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="348172" cy="347403"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B655492B-6F09-49E7-8ECB-89D968CC0916}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="2176722"/>
+              <a:ext cx="348172" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>S</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B655492B-6F09-49E7-8ECB-89D968CC0916}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4143375" y="2176722"/>
+              <a:ext cx="348172" cy="347403"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2200" b="0" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"S" _"0" </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2200" b="0" i="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383317EF-CFCA-059F-2355-34D344E1F797}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +6487,7 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -1486,15 +6703,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1504,6 +6721,721 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C356852-8636-4621-8846-F40C976D394C}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="12">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="12">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940E3979-7BEE-4CD1-A787-0B6459600799}">
+  <dimension ref="B1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
+        <v>12</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57C2519-5DA8-4301-A297-40282E18C352}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1729,15 +7661,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1756,6 +7688,249 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
+        <v>12</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249F5B8A-C5A3-41C1-8367-34C72F2A0BEF}">
+  <dimension ref="B1:H22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1972,15 +8147,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="B18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1994,12 +8169,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249F5B8A-C5A3-41C1-8367-34C72F2A0BEF}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E080F02-2754-45ED-B8FE-D1352D36396E}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="E4:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E419D3D-28F1-4E6D-AB79-F1B4E65120AB}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -2215,15 +8649,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="B18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2237,12 +8671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E080F02-2754-45ED-B8FE-D1352D36396E}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7715598-53C8-41AD-A581-22F261EC3CE8}">
   <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -2277,14 +8711,12 @@
     </row>
     <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>37</v>
+      <c r="E4" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="12">
         <v>16</v>
@@ -2298,25 +8730,23 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="12">
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="15"/>
     </row>
@@ -2324,25 +8754,23 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="12">
         <v>14</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -2350,25 +8778,23 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="12">
         <v>13</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -2376,26 +8802,24 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="U11" s="20"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="12">
         <v>12</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -2403,7 +8827,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -2411,17 +8835,17 @@
     <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="12">
         <v>11</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2429,7 +8853,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -2437,17 +8861,17 @@
     <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="12">
         <v>7</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="12">
         <v>10</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -2455,7 +8879,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -2468,12 +8892,12 @@
       <c r="D18" s="12">
         <v>8</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="12">
         <v>9</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -2487,22 +8911,550 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E4:E18"/>
     <mergeCell ref="B20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8B3189-9408-4AE7-8C42-F0A6AA6C7298}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
     <mergeCell ref="E4:E18"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50763B75-D244-4F4A-9826-5E87BD0B854A}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="12">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/images/pinout_generation.xlsx
+++ b/images/pinout_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdram\Documents\GitHub\gdramos.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210D088F-4EF3-4CB8-A5C4-1B63C94F4390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA4D2B0-96C1-400B-8361-E0F27ECCD3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="74ls00" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="74ls283" sheetId="11" r:id="rId10"/>
     <sheet name="74ls73" sheetId="12" r:id="rId11"/>
     <sheet name="at28c64b" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
   <si>
     <t>Vcc</t>
   </si>
@@ -323,6 +324,9 @@
   </si>
   <si>
     <t>2D2</t>
+  </si>
+  <si>
+    <t>Common Anode 7 Segment Display</t>
   </si>
 </sst>
 </file>
@@ -860,8 +864,8 @@
       <xdr:rowOff>218304</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="629018" cy="381771"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -903,6 +907,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -914,7 +919,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -950,7 +955,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -1017,8 +1022,8 @@
       <xdr:rowOff>217854</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="629018" cy="382221"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1060,6 +1065,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1071,7 +1077,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -1107,7 +1113,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1174,8 +1180,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="396647" cy="382221"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1217,6 +1223,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1228,7 +1235,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -1264,7 +1271,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1331,8 +1338,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="396647" cy="382221"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1374,6 +1381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1385,7 +1393,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -1421,7 +1429,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1688,6 +1696,171 @@
         <a:xfrm>
           <a:off x="6457950" y="371475"/>
           <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7522293-C479-4565-874C-52D02C5FEDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3109912"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399451</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220F3900-6AEF-3E8A-D598-F30C5B902521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="590550"/>
+          <a:ext cx="3237901" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08E6E26-F722-7D1D-30F6-04B5CFBE5081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="676275"/>
+          <a:ext cx="4638675" cy="5781675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2148,8 +2321,8 @@
       <xdr:rowOff>235423</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="890693" cy="364652"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2191,6 +2364,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2201,8 +2375,8 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="Calibri  "/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -2247,7 +2421,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2314,8 +2488,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="441531" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2357,6 +2531,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2367,8 +2542,8 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="Calibri  "/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -2395,7 +2570,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2462,8 +2637,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="383695" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2505,6 +2680,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2515,8 +2691,8 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="Calibri  "/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -2552,7 +2728,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2619,8 +2795,8 @@
       <xdr:rowOff>252672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387286" cy="347403"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -2662,6 +2838,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2671,8 +2848,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -2710,7 +2887,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -2777,8 +2954,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387286" cy="344774"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2820,6 +2997,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2829,8 +3007,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2872,7 +3050,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2941,8 +3119,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387286" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -2984,6 +3162,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2993,8 +3172,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3036,7 +3215,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -3105,8 +3284,8 @@
       <xdr:rowOff>252672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387286" cy="347403"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -3148,6 +3327,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3157,8 +3337,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3200,7 +3380,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -3500,8 +3680,8 @@
       <xdr:rowOff>255685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="689868" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3543,6 +3723,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3553,8 +3734,8 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="Calibri  "/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -3599,7 +3780,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3666,8 +3847,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="680058" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3709,6 +3890,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3719,8 +3901,8 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="Calibri  "/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -3765,7 +3947,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3876,8 +4058,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="344774"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3919,6 +4101,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3928,8 +4111,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3971,7 +4154,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -4040,8 +4223,8 @@
       <xdr:rowOff>255685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4083,6 +4266,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4092,8 +4276,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -4135,7 +4319,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4204,8 +4388,8 @@
       <xdr:rowOff>300297</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="347403"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4247,6 +4431,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4256,8 +4441,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -4299,7 +4484,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4489,8 +4674,8 @@
       <xdr:rowOff>220035</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="383631" cy="380040"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4532,6 +4717,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4543,7 +4729,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -4570,7 +4756,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4681,8 +4867,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="344774"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4724,6 +4910,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4733,8 +4920,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -4776,7 +4963,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4845,8 +5032,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4888,6 +5075,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4897,8 +5085,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -4940,7 +5128,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -5009,8 +5197,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="347403"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5052,6 +5240,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5061,8 +5250,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -5104,7 +5293,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5173,8 +5362,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195886" cy="379591"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5216,6 +5405,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5227,7 +5417,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -5254,7 +5444,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5442,8 +5632,8 @@
       <xdr:rowOff>266890</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="526618" cy="380810"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5485,6 +5675,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5496,7 +5687,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -5532,7 +5723,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5643,8 +5834,8 @@
       <xdr:rowOff>217854</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="526618" cy="382221"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5686,6 +5877,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5697,7 +5889,7 @@
                         <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="2200" b="0" i="1">
-                            <a:latin typeface="Calibri  "/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:barPr>
@@ -5733,7 +5925,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5800,8 +5992,8 @@
       <xdr:rowOff>255685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="344390"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -5843,6 +6035,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5852,8 +6045,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -5895,7 +6088,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -5964,8 +6157,8 @@
       <xdr:rowOff>252672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348172" cy="347403"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -6007,6 +6200,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6016,8 +6210,8 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="2200" b="0" i="0">
-                            <a:latin typeface="+mn-lt"/>
+                          <a:rPr lang="en-US" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6059,7 +6253,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -7237,8 +7431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57C2519-5DA8-4301-A297-40282E18C352}">
   <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -7437,6 +7631,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C4868B-8F05-4C53-89C6-EB742AA35EEF}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/images/pinout_generation.xlsx
+++ b/images/pinout_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdram\Documents\GitHub\gdramos.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA4D2B0-96C1-400B-8361-E0F27ECCD3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C8FD53-1EA8-4C1B-A1F9-6FDF1DB37BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="74ls00" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="74ls283" sheetId="11" r:id="rId10"/>
     <sheet name="74ls73" sheetId="12" r:id="rId11"/>
     <sheet name="at28c64b" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
+    <sheet name="7-Seg" sheetId="15" r:id="rId13"/>
+    <sheet name="Clk" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>Vcc</t>
   </si>
@@ -328,6 +329,9 @@
   <si>
     <t>Common Anode 7 Segment Display</t>
   </si>
+  <si>
+    <t>Arduino Clock Generator</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,6 +521,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1861,6 +1868,177 @@
         <a:xfrm>
           <a:off x="6457950" y="676275"/>
           <a:ext cx="4638675" cy="5781675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74675E92-1E76-CB0C-4F71-E84E463DB0CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2047875" y="438150"/>
+          <a:ext cx="1762125" cy="4203234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>274805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78ADD34E-AF11-DABA-4511-C914CC9D0C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="4438650"/>
+          <a:ext cx="4533900" cy="760580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBE3D6A-1A04-A18C-B27B-5D356DC43C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="371475"/>
+          <a:ext cx="4638675" cy="5181600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7197,7 +7375,7 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -7638,8 +7816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C4868B-8F05-4C53-89C6-EB742AA35EEF}">
   <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -7840,12 +8018,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F3D45C-6C4D-4D28-B78F-98756C30EB9B}">
+  <dimension ref="B1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4099B64B-C097-474A-9F25-7F54CEC4C505}">
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>

--- a/images/pinout_generation.xlsx
+++ b/images/pinout_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdram\Documents\GitHub\gdramos.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C8FD53-1EA8-4C1B-A1F9-6FDF1DB37BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69B6BB-CF4C-4B98-B5A3-D80B334052FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="14" xr2:uid="{FC8B7902-EF1F-44E2-AC5C-09552D7F3AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="74ls00" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="at28c64b" sheetId="14" r:id="rId12"/>
     <sheet name="7-Seg" sheetId="15" r:id="rId13"/>
     <sheet name="Clk" sheetId="17" r:id="rId14"/>
+    <sheet name="How to save" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>Vcc</t>
   </si>
@@ -246,15 +247,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>Cin</t>
   </si>
   <si>
@@ -331,6 +323,30 @@
   </si>
   <si>
     <t>Arduino Clock Generator</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>Select cells to copy</t>
+  </si>
+  <si>
+    <t>See picture</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>Right click</t>
+  </si>
+  <si>
+    <t>Save as picture</t>
   </si>
 </sst>
 </file>
@@ -510,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -521,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,6 +811,67 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="6457950" y="371475"/>
+          <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFB3251-B9EC-B758-7EA8-CC058767EC05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11944350" y="371475"/>
           <a:ext cx="4991100" cy="5581650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1886,6 +1963,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A576063-1EB6-5038-F674-8DD9BB039A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12553950" y="676275"/>
+          <a:ext cx="4991100" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2053,6 +2191,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1C70E5-AC4D-470B-9427-C4387B07B2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="381000"/>
+          <a:ext cx="3285714" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6859,7 +7046,7 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -7075,15 +7262,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7101,8 +7288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C356852-8636-4621-8846-F40C976D394C}">
   <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -7138,12 +7325,12 @@
     <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="12">
@@ -7158,7 +7345,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -7166,17 +7353,17 @@
     <row r="6" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12">
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H6" s="15"/>
     </row>
@@ -7184,7 +7371,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -7192,17 +7379,17 @@
     <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12">
         <v>14</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -7210,7 +7397,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -7218,17 +7405,17 @@
     <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12">
         <v>13</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -7236,7 +7423,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -7245,17 +7432,17 @@
     <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12">
         <v>12</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -7263,7 +7450,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -7271,17 +7458,17 @@
     <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12">
         <v>11</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -7289,7 +7476,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -7297,17 +7484,17 @@
     <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="12">
         <v>7</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12">
         <v>10</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -7315,7 +7502,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -7328,12 +7515,12 @@
       <c r="D18" s="12">
         <v>8</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12">
         <v>9</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -7347,15 +7534,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7411,7 +7598,7 @@
     <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -7421,7 +7608,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -7459,7 +7646,7 @@
     <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
@@ -7469,7 +7656,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -7511,7 +7698,7 @@
     <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
@@ -7521,7 +7708,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -7545,7 +7732,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -7561,7 +7748,7 @@
     <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="12">
         <v>7</v>
@@ -7583,15 +7770,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7647,7 +7834,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="12"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -7656,7 +7843,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -7665,7 +7852,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -7674,7 +7861,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -7683,7 +7870,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
@@ -7692,7 +7879,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -7701,7 +7888,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -7710,7 +7897,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -7720,7 +7907,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
@@ -7729,7 +7916,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -7738,7 +7925,7 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
@@ -7747,7 +7934,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -7756,7 +7943,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -7765,7 +7952,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -7774,7 +7961,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
@@ -7789,15 +7976,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7817,7 +8004,7 @@
   <dimension ref="B1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B2:H20"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -7854,7 +8041,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="12"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -7863,7 +8050,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -7872,7 +8059,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -7881,7 +8068,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -7890,7 +8077,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
@@ -7899,7 +8086,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -7908,7 +8095,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -7917,7 +8104,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -7927,7 +8114,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
@@ -7936,7 +8123,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -7945,7 +8132,7 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
@@ -7954,7 +8141,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -7963,7 +8150,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -7972,7 +8159,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -7981,7 +8168,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
@@ -7996,15 +8183,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8014,7 +8201,8 @@
     <mergeCell ref="B20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8022,7 +8210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F3D45C-6C4D-4D28-B78F-98756C30EB9B}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -8168,7 +8356,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -8183,15 +8371,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8199,6 +8387,62 @@
   <mergeCells count="1">
     <mergeCell ref="B18:H18"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1C7CA9-F17C-494F-ABE1-06F0F2925A8D}">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8425,15 +8669,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8668,15 +8912,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8911,15 +9155,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8977,7 +9221,7 @@
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="12">
@@ -8992,7 +9236,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -9003,7 +9247,7 @@
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12">
         <v>15</v>
       </c>
@@ -9016,7 +9260,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -9027,7 +9271,7 @@
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12">
         <v>14</v>
       </c>
@@ -9040,7 +9284,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -9051,7 +9295,7 @@
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12">
         <v>13</v>
       </c>
@@ -9064,7 +9308,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -9076,7 +9320,7 @@
       <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12">
         <v>12</v>
       </c>
@@ -9089,7 +9333,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -9100,7 +9344,7 @@
       <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12">
         <v>11</v>
       </c>
@@ -9113,7 +9357,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -9124,7 +9368,7 @@
       <c r="D16" s="12">
         <v>7</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12">
         <v>10</v>
       </c>
@@ -9137,7 +9381,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -9150,7 +9394,7 @@
       <c r="D18" s="12">
         <v>8</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12">
         <v>9</v>
       </c>
@@ -9169,15 +9413,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9413,15 +9657,15 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9479,7 +9723,7 @@
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="12">
@@ -9494,7 +9738,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -9505,7 +9749,7 @@
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12">
         <v>15</v>
       </c>
@@ -9518,7 +9762,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -9529,7 +9773,7 @@
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12">
         <v>14</v>
       </c>
@@ -9542,7 +9786,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -9553,7 +9797,7 @@
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12">
         <v>13</v>
       </c>
@@ -9566,7 +9810,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -9578,7 +9822,7 @@
       <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12">
         <v>12</v>
       </c>
@@ -9591,7 +9835,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -9599,12 +9843,12 @@
     <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12">
         <v>11</v>
       </c>
@@ -9617,7 +9861,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -9630,7 +9874,7 @@
       <c r="D16" s="12">
         <v>7</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12">
         <v>10</v>
       </c>
@@ -9643,7 +9887,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -9656,7 +9900,7 @@
       <c r="D18" s="12">
         <v>8</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12">
         <v>9</v>
       </c>
@@ -9675,15 +9919,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9744,7 +9988,7 @@
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="12">
@@ -9759,7 +10003,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -9772,7 +10016,7 @@
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12">
         <v>15</v>
       </c>
@@ -9785,7 +10029,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -9798,7 +10042,7 @@
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12">
         <v>14</v>
       </c>
@@ -9811,7 +10055,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -9824,7 +10068,7 @@
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12">
         <v>13</v>
       </c>
@@ -9837,7 +10081,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -9846,12 +10090,12 @@
     <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12">
         <v>12</v>
       </c>
@@ -9864,7 +10108,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -9875,7 +10119,7 @@
       <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12">
         <v>11</v>
       </c>
@@ -9886,7 +10130,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -9897,7 +10141,7 @@
       <c r="D16" s="12">
         <v>7</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12">
         <v>10</v>
       </c>
@@ -9908,7 +10152,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -9921,7 +10165,7 @@
       <c r="D18" s="12">
         <v>8</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12">
         <v>9</v>
       </c>
@@ -9938,15 +10182,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10005,7 +10249,7 @@
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="12">
@@ -10020,7 +10264,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -10031,7 +10275,7 @@
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="12">
         <v>15</v>
       </c>
@@ -10042,7 +10286,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -10050,12 +10294,12 @@
     <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="12">
         <v>14</v>
       </c>
@@ -10066,7 +10310,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -10074,17 +10318,17 @@
     <row r="10" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="12">
         <v>13</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -10092,7 +10336,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -10101,17 +10345,17 @@
     <row r="12" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="12">
         <v>12</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -10119,7 +10363,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -10127,17 +10371,17 @@
     <row r="14" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="12">
         <v>11</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -10145,7 +10389,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -10153,17 +10397,17 @@
     <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" s="12">
         <v>7</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="12">
         <v>10</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -10171,7 +10415,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -10184,12 +10428,12 @@
       <c r="D18" s="12">
         <v>8</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="12">
         <v>9</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -10203,15 +10447,15 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.45"/>
